--- a/PrisonersDilemma/experiment3/contest3/summary3.xlsx
+++ b/PrisonersDilemma/experiment3/contest3/summary3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="8380" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary.csv" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Datetime</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Number of strategies</t>
-  </si>
-  <si>
-    <t>Str_numbers</t>
   </si>
   <si>
     <t>Strategy name</t>
@@ -116,6 +113,14 @@
   </si>
   <si>
     <t>TFT'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Str No.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -175,8 +180,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -189,10 +204,20 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -521,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G19" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -587,25 +612,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -613,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>3.4584616873299998</v>
@@ -634,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>3.4459537250099999</v>
@@ -649,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -657,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>3.4456051366899998</v>
@@ -672,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -680,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>3.4268528545199999</v>
@@ -695,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -703,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>3.4050640241700001</v>
@@ -718,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -726,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>3.3895751021099998</v>
@@ -747,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>3.3895540640199999</v>
@@ -768,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>3.37452078409</v>
@@ -791,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>3.24485393357</v>
@@ -806,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -814,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>3.2408958622899999</v>
@@ -829,6 +854,19 @@
         <v>10</v>
       </c>
       <c r="G17" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(C8:C17)</f>
+        <v>3.3821337173799995</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(E8:E17)</f>
+        <v>3.1356916037659999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A7:G17">
